--- a/public/files/example-import-products_es.xlsx
+++ b/public/files/example-import-products_es.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\evertec\mercatodo\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAD49E6-2DDE-44E7-B39C-671083F3D5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF48518-1130-43F8-86DB-C08E271F6C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>sku</t>
   </si>
@@ -120,6 +120,30 @@
   </si>
   <si>
     <t xml:space="preserve">Requerido - Activo o Inactivo </t>
+  </si>
+  <si>
+    <t>Url pública de la imagen                               ejemplo: https://support.apple.com/library/content/dam/edam/applecare/images/es_MX/icloud/pc-ios-14-iphone-11-pro-icloud-photos-hero.jpg</t>
+  </si>
+  <si>
+    <t>9999999</t>
+  </si>
+  <si>
+    <t>This is a example</t>
+  </si>
+  <si>
+    <t>This is a example this is a example This is a example this is a exampleThis is a example this is a exampleThis is a example this is a exampleThis is a example this is a exampleThis is a example this is a exampleThis is a example this is a exampleThis is a example this is a exampleThis is a example this is a example</t>
+  </si>
+  <si>
+    <t>Esto es un ejemplo</t>
+  </si>
+  <si>
+    <t>Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/library/content/dam/edam/applecare/images/es_MX/icloud/pc-ios-14-iphone-11-pro-icloud-photos-hero.jpg</t>
+  </si>
+  <si>
+    <t>Activo</t>
   </si>
   <si>
     <r>
@@ -131,7 +155,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Nota: </t>
+      <t>Nota 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> copie sus productos para importar, siempre desde la fila 18, donde se encuentra actualmente el registro de ejemplo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nota 1: </t>
     </r>
     <r>
       <rPr>
@@ -143,30 +190,6 @@
       </rPr>
       <t>Si en los campos de imágenes usted proporciona urls de las cuales éstas no se pueden descargar, el producto se colocará en estado "inactivo" y en su lugar se agregararán imágenes por defecto.</t>
     </r>
-  </si>
-  <si>
-    <t>Url pública de la imagen                               ejemplo: https://support.apple.com/library/content/dam/edam/applecare/images/es_MX/icloud/pc-ios-14-iphone-11-pro-icloud-photos-hero.jpg</t>
-  </si>
-  <si>
-    <t>9999999</t>
-  </si>
-  <si>
-    <t>This is a example</t>
-  </si>
-  <si>
-    <t>This is a example this is a example This is a example this is a exampleThis is a example this is a exampleThis is a example this is a exampleThis is a example this is a exampleThis is a example this is a exampleThis is a example this is a exampleThis is a example this is a exampleThis is a example this is a example</t>
-  </si>
-  <si>
-    <t>Esto es un ejemplo</t>
-  </si>
-  <si>
-    <t>Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo Esto es una ejemplo esto es una ejemplo</t>
-  </si>
-  <si>
-    <t>https://support.apple.com/library/content/dam/edam/applecare/images/es_MX/icloud/pc-ios-14-iphone-11-pro-icloud-photos-hero.jpg</t>
-  </si>
-  <si>
-    <t>Activo</t>
   </si>
 </sst>
 </file>
@@ -567,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -625,15 +648,19 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
@@ -698,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -754,19 +781,19 @@
     <row r="18" spans="1:16" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="G18" s="3">
         <v>65500.52</v>
@@ -778,27 +805,28 @@
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="3">
         <v>21</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/public/files/example-import-products_es.xlsx
+++ b/public/files/example-import-products_es.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\evertec\mercatodo\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF48518-1130-43F8-86DB-C08E271F6C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB795425-27B2-418A-A6E9-720486B18E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-2175" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Productos" sheetId="1" r:id="rId1"/>
+    <sheet name="Formato de la información" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>sku</t>
   </si>
@@ -122,9 +123,6 @@
     <t xml:space="preserve">Requerido - Activo o Inactivo </t>
   </si>
   <si>
-    <t>Url pública de la imagen                               ejemplo: https://support.apple.com/library/content/dam/edam/applecare/images/es_MX/icloud/pc-ios-14-iphone-11-pro-icloud-photos-hero.jpg</t>
-  </si>
-  <si>
     <t>9999999</t>
   </si>
   <si>
@@ -144,29 +142,6 @@
   </si>
   <si>
     <t>Activo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nota 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> copie sus productos para importar, siempre desde la fila 18, donde se encuentra actualmente el registro de ejemplo</t>
-    </r>
   </si>
   <si>
     <r>
@@ -190,6 +165,9 @@
       </rPr>
       <t>Si en los campos de imágenes usted proporciona urls de las cuales éstas no se pueden descargar, el producto se colocará en estado "inactivo" y en su lugar se agregararán imágenes por defecto.</t>
     </r>
+  </si>
+  <si>
+    <t>Url pública de la imagen                                                 ejemplo: https://support.apple.com/library/content/dam/edam/applecare/images/es_MX/icloud/pc-ios-14-iphone-11-pro-icloud-photos-hero.jpg</t>
   </si>
 </sst>
 </file>
@@ -269,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +284,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P18"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,6 +593,124 @@
     <col min="16" max="16" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3">
+        <v>65500.52</v>
+      </c>
+      <c r="H2" s="3">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="3">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{5FBC9977-001E-49A6-B066-FB3D8A03A695}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C65FFF-6BAB-4F62-B0C6-093A0113E423}">
+  <dimension ref="B2:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>27</v>
@@ -634,7 +733,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -655,10 +754,8 @@
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -680,7 +777,7 @@
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
@@ -688,7 +785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
@@ -696,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -704,7 +801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
@@ -712,7 +809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
@@ -720,119 +817,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="3">
-        <v>65500.52</v>
-      </c>
-      <c r="H18" s="3">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="3">
-        <v>21</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" xr:uid="{5FBC9977-001E-49A6-B066-FB3D8A03A695}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>